--- a/STU StatusQuo/SupplierChanges.xlsx
+++ b/STU StatusQuo/SupplierChanges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpak\Documents\UiPath\RPA-Patterns\splitting-things-up\STU StatusQuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8B678-22B2-4A13-83D8-8FA2A50ACA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638D402-7C6B-410D-994D-3F1E7B785529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{29BBA26A-78A3-4E95-9613-956850FC568C}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
